--- a/tables/research_log.xlsx
+++ b/tables/research_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\SCUA\CASA_thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\Desktop\CASA-MSc-thesis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CB3B05-418F-43E9-95C6-FED268DDCA54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45141448-5F4B-4FA4-89C5-0D740145EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485" xr2:uid="{2919A5B8-BF7C-4943-B2AE-9E8EB0A96388}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2919A5B8-BF7C-4943-B2AE-9E8EB0A96388}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -33,28 +33,149 @@
     <t>Task</t>
   </si>
   <si>
-    <t>31st May 2020</t>
-  </si>
-  <si>
-    <t>7th June 2020</t>
-  </si>
-  <si>
-    <t>data search, commenced literature review</t>
-  </si>
-  <si>
-    <t>revised literature in the direction of x</t>
+    <t>28th June 2025</t>
+  </si>
+  <si>
+    <t>5th July 2025</t>
+  </si>
+  <si>
+    <t>10th July 2025</t>
+  </si>
+  <si>
+    <t>15th July 2025</t>
+  </si>
+  <si>
+    <t>20th July 2025</t>
+  </si>
+  <si>
+    <t>21st July 2025</t>
+  </si>
+  <si>
+    <t>24th July 2025</t>
+  </si>
+  <si>
+    <t>27th July 2025</t>
+  </si>
+  <si>
+    <t>30th July 2025</t>
+  </si>
+  <si>
+    <t>2nd Aug 2025</t>
+  </si>
+  <si>
+    <t>6th Aug 2025</t>
+  </si>
+  <si>
+    <t>10th Aug 2025</t>
+  </si>
+  <si>
+    <t>13th Aug 2025</t>
+  </si>
+  <si>
+    <t>15th Aug 2025</t>
+  </si>
+  <si>
+    <t>17th Aug 2025</t>
+  </si>
+  <si>
+    <t>Outlined research framework and indicator system</t>
+  </si>
+  <si>
+    <t>Reviewed data sources and access channels</t>
+  </si>
+  <si>
+    <t>Downloaded street network data and checked structure</t>
+  </si>
+  <si>
+    <t>Processed GVI remote sensing data</t>
+  </si>
+  <si>
+    <t>Collected AQI and landscape data</t>
+  </si>
+  <si>
+    <t>Cleaned street network dataset</t>
+  </si>
+  <si>
+    <t>Built LTS classification fields</t>
+  </si>
+  <si>
+    <t>Generated slope layer</t>
+  </si>
+  <si>
+    <t>Standardized environmental indicators</t>
+  </si>
+  <si>
+    <t>Merged datasets and created master table</t>
+  </si>
+  <si>
+    <t>Calculated centrality measures</t>
+  </si>
+  <si>
+    <t>Conducted correlation and clustering analysis</t>
+  </si>
+  <si>
+    <t>Produced spatial maps (LTS, slope, GVI)</t>
+  </si>
+  <si>
+    <t>Started writing methodology</t>
+  </si>
+  <si>
+    <t>Computed Impedance Index</t>
+  </si>
+  <si>
+    <t>19th Aug 2025</t>
+  </si>
+  <si>
+    <t>Expanded results draft</t>
+  </si>
+  <si>
+    <t>20th Aug 2025</t>
+  </si>
+  <si>
+    <t>Continued writing methodology and results</t>
+  </si>
+  <si>
+    <t>21st Aug 2025</t>
+  </si>
+  <si>
+    <t>Integrated figures into results</t>
+  </si>
+  <si>
+    <t>22nd Aug 2025</t>
+  </si>
+  <si>
+    <t>Linked literature review with methodology</t>
+  </si>
+  <si>
+    <t>24th Aug 2025</t>
+  </si>
+  <si>
+    <t>Drafted discussion section</t>
+  </si>
+  <si>
+    <t>26th Aug 2025</t>
+  </si>
+  <si>
+    <t>Finalized writing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,11 +199,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -98,7 +222,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,16 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0918B5B-C1DF-4991-A3CC-9E87313077B4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,22 +539,175 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>